--- a/dtpu_configurations/only_integer32/50mhz/mxu_5x5/power.xlsx
+++ b/dtpu_configurations/only_integer32/50mhz/mxu_5x5/power.xlsx
@@ -127,7 +127,7 @@
     <col min="3" max="3" width="9.84375" customWidth="true"/>
     <col min="4" max="4" width="8.75" customWidth="true"/>
     <col min="5" max="5" width="8.75" customWidth="true"/>
-    <col min="6" max="6" width="10.3125" customWidth="true"/>
+    <col min="6" max="6" width="8.75" customWidth="true"/>
     <col min="7" max="7" width="8.75" customWidth="true"/>
     <col min="8" max="8" width="10.3125" customWidth="true"/>
     <col min="9" max="9" width="8.75" customWidth="true"/>
@@ -175,22 +175,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.017535580322146416</v>
+        <v>0.02524005062878132</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.011109588667750359</v>
+        <v>0.009431922808289528</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.007041588891297579</v>
+        <v>0.007152342237532139</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.0063186706975102425</v>
+        <v>0.005557909607887268</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>2.797835441015195E-5</v>
+        <v>0.0010664616711437702</v>
       </c>
       <c r="G2" t="n" s="4">
-        <v>0.0017373355804011226</v>
+        <v>0.0017505927244201303</v>
       </c>
       <c r="H2" t="n" s="4">
         <v>9.700000518932939E-4</v>
@@ -199,10 +199,10 @@
         <v>1.258823275566101</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12637338042259216</v>
+        <v>0.1274498850107193</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4299441576004028</v>
+        <v>1.4374490976333618</v>
       </c>
     </row>
   </sheetData>
